--- a/data/trans_orig/P14C01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66885D19-2B21-4142-9A25-EE18AC3E5263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61468724-F241-486F-997D-C975BC689B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F50173F4-1FEF-4F69-882D-3E3846E87E98}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F22E34E-70BC-4984-8A63-D69CF72A8DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="182">
   <si>
     <t>Población según el tiempo de diagnóstico del cáncer en 2015 (Tasa respuesta: 1,43%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>42,97%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>49,38%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,13 +113,13 @@
     <t>26,95%</t>
   </si>
   <si>
-    <t>70,79%</t>
+    <t>69,97%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>62,38%</t>
+    <t>62,15%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -128,13 +128,13 @@
     <t>30,08%</t>
   </si>
   <si>
-    <t>73,69%</t>
+    <t>73,67%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>66,05%</t>
+    <t>66,0%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -191,73 +191,73 @@
     <t>14,82%</t>
   </si>
   <si>
-    <t>70,06%</t>
+    <t>66,58%</t>
   </si>
   <si>
     <t>44,47%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>82,23%</t>
+    <t>71,74%</t>
   </si>
   <si>
     <t>31,5%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
   </si>
   <si>
     <t>48,69%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>66,01%</t>
+    <t>63,28%</t>
   </si>
   <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -266,55 +266,55 @@
     <t>67,99%</t>
   </si>
   <si>
-    <t>29,66%</t>
+    <t>16,21%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>60,08%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>61,54%</t>
+    <t>69,28%</t>
   </si>
   <si>
     <t>43,89%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>69,83%</t>
+    <t>70,68%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -323,7 +323,7 @@
     <t>6,16%</t>
   </si>
   <si>
-    <t>30,38%</t>
+    <t>31,27%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -368,19 +368,19 @@
     <t>62,58%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>19,2%</t>
@@ -392,19 +392,19 @@
     <t>27,75%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>80,8%</t>
@@ -416,16 +416,16 @@
     <t>9,67%</t>
   </si>
   <si>
-    <t>37,61%</t>
+    <t>37,42%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -506,82 +506,79 @@
     <t>39,33%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>45,9%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>31,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750316-74AE-4314-AF92-A6C756D60E8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E01CB0E-DB98-426D-BB08-229F8972132A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2903,10 +2900,10 @@
         <v>179</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,7 +2959,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C01-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61468724-F241-486F-997D-C975BC689B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D523B467-5D04-4149-AFB2-09CD68AA5485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F22E34E-70BC-4984-8A63-D69CF72A8DE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA9F9279-9A7F-46D1-8B48-C5DA68066B6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="182">
-  <si>
-    <t>Población según el tiempo de diagnóstico del cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="181">
+  <si>
+    <t>Población según el tiempo de diagnóstico del cáncer en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>42,97%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>49,38%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,13 +113,13 @@
     <t>26,95%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>69,99%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>62,15%</t>
+    <t>62,12%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -128,13 +128,13 @@
     <t>30,08%</t>
   </si>
   <si>
-    <t>73,67%</t>
+    <t>73,55%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>66,0%</t>
+    <t>65,86%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -149,10 +149,10 @@
     <t>35,95%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>48,44%</t>
@@ -164,16 +164,16 @@
     <t>51,21%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>77,32%</t>
+    <t>83,92%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -182,7 +182,7 @@
     <t>12,84%</t>
   </si>
   <si>
-    <t>59,23%</t>
+    <t>51,27%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -191,394 +191,391 @@
     <t>14,82%</t>
   </si>
   <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
     <t>66,58%</t>
   </si>
   <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>84,0%</t>
+    <t>84,85%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>70,18%</t>
+    <t>73,86%</t>
   </si>
   <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
   </si>
   <si>
     <t>22,96%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>39,33%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>45,9%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>31,67%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -993,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E01CB0E-DB98-426D-BB08-229F8972132A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06BCBF9-2B75-492D-92EE-DCE80DC0C820}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1974,7 +1971,7 @@
         <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -1998,7 +1995,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2022,13 +2019,13 @@
         <v>981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2046,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2183,7 +2180,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,7 +2225,7 @@
         <v>1287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>21</v>
@@ -2279,7 +2276,7 @@
         <v>793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
@@ -2341,7 +2338,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2359,7 +2356,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -2368,13 +2365,13 @@
         <v>9999</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -2383,13 +2380,13 @@
         <v>9999</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2401,13 @@
         <v>898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2419,13 +2416,13 @@
         <v>4434</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2434,13 +2431,13 @@
         <v>5332</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,10 +2452,10 @@
         <v>3778</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>11</v>
@@ -2470,13 +2467,13 @@
         <v>1544</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2485,13 +2482,13 @@
         <v>5322</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,7 +2544,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2559,13 +2556,13 @@
         <v>2344</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -2574,13 +2571,13 @@
         <v>7638</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -2589,13 +2586,13 @@
         <v>9981</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2607,13 @@
         <v>2254</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -2625,13 +2622,13 @@
         <v>5592</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -2640,13 +2637,13 @@
         <v>7846</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2658,13 @@
         <v>924</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2676,13 +2673,13 @@
         <v>4389</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -2691,13 +2688,13 @@
         <v>5313</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2762,13 @@
         <v>11695</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -2780,13 +2777,13 @@
         <v>34610</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M36" s="7">
         <v>42</v>
@@ -2795,13 +2792,13 @@
         <v>46305</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2813,13 @@
         <v>7834</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -2831,13 +2828,13 @@
         <v>25482</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M37" s="7">
         <v>32</v>
@@ -2846,13 +2843,13 @@
         <v>33315</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2864,13 @@
         <v>10206</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -2882,13 +2879,13 @@
         <v>11058</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M38" s="7">
         <v>20</v>
@@ -2897,13 +2894,13 @@
         <v>21264</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2942,7 @@
         <v>94</v>
       </c>
       <c r="N39" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
